--- a/innsikt/Sortert ideliste.xlsx
+++ b/innsikt/Sortert ideliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/kristgg_ntnu_no/Documents/2023 Vår/Elektronisk systemdesign, prosjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{4696041F-4AFD-421E-96C1-3B11BBF23A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A925C-FF1E-4BB4-8112-4220820C1D17}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{4696041F-4AFD-421E-96C1-3B11BBF23A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{361FCDBE-D813-4862-8CBD-BE8E3BDA509F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{158F20D6-7A73-408A-AC63-3DA86D1C694F}"/>
   </bookViews>
@@ -224,16 +224,16 @@
     <t xml:space="preserve"> Interaktiv kunst  bilder på gulv </t>
   </si>
   <si>
-    <t xml:space="preserve"> AIkunst </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ballong som blåser seg opp etter hype/antall stemmer, konfetti </t>
   </si>
   <si>
     <t xml:space="preserve">Lyddemping ved inngang (helt stille, noisecancelling headset) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Tryllestavprosjektor (disney)* </t>
+    <t xml:space="preserve"> Tryllestavprosjektor (disney)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AI-kunst </t>
   </si>
 </sst>
 </file>
@@ -269,13 +269,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,6 +293,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,13 +627,13 @@
   <dimension ref="B1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="2"/>
+    <col min="3" max="3" width="10.90625" style="1"/>
     <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -640,10 +642,10 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
@@ -654,88 +656,88 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f>COUNTIF($C$2:$C$49,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>COUNTIF($C$2:$C$49,1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>COUNTIF($C$2:$C$49,2)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>COUNTIF($C$2:$C$49,3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>COUNTIF($C$2:$C$49,4)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>COUNTIF($C$2:$C$49,5)</f>
         <v>4</v>
       </c>
@@ -744,13 +746,13 @@
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>COUNTIF($C$2:$C$49,6)</f>
         <v>3</v>
       </c>
@@ -759,13 +761,13 @@
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f>COUNTIF($C$2:$C$49,7)</f>
         <v>2</v>
       </c>
@@ -774,13 +776,13 @@
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f>COUNTIF($C$2:$C$49,8)</f>
         <v>4</v>
       </c>
@@ -789,13 +791,13 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f>COUNTIF($C$2:$C$49,9)</f>
         <v>3</v>
       </c>
@@ -804,13 +806,13 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f>COUNTIF($C$2:$C$49,10)</f>
         <v>2</v>
       </c>
@@ -819,13 +821,13 @@
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f>COUNTIF($C$2:$C$49,11)</f>
         <v>3</v>
       </c>
@@ -834,13 +836,13 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>COUNTIF($C$2:$C$49,12)</f>
         <v>1</v>
       </c>
@@ -849,7 +851,7 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>7</v>
       </c>
     </row>
@@ -857,7 +859,7 @@
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>7</v>
       </c>
     </row>
@@ -865,7 +867,7 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>6</v>
       </c>
     </row>
@@ -873,7 +875,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>6</v>
       </c>
     </row>
@@ -881,7 +883,7 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>6</v>
       </c>
     </row>
@@ -889,7 +891,7 @@
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>5</v>
       </c>
     </row>
@@ -897,7 +899,7 @@
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -905,7 +907,7 @@
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -913,7 +915,7 @@
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -921,7 +923,7 @@
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4</v>
       </c>
     </row>
@@ -929,7 +931,7 @@
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
     </row>
@@ -937,7 +939,7 @@
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>4</v>
       </c>
     </row>
@@ -945,7 +947,7 @@
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>4</v>
       </c>
     </row>
@@ -953,7 +955,7 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>4</v>
       </c>
     </row>
@@ -961,7 +963,7 @@
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>4</v>
       </c>
     </row>
@@ -969,7 +971,7 @@
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>3</v>
       </c>
     </row>
@@ -977,7 +979,7 @@
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
     </row>
@@ -985,7 +987,7 @@
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
     </row>
@@ -993,7 +995,7 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1001,7 +1003,7 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1009,7 +1011,7 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1017,7 +1019,7 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1025,7 +1027,7 @@
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1033,7 +1035,7 @@
       <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1041,7 +1043,7 @@
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1049,7 +1051,7 @@
       <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1059,7 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1067,7 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1073,7 +1075,7 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1081,7 +1083,7 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1091,7 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1097,7 +1099,7 @@
       <c r="B46" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1105,7 +1107,7 @@
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1115,7 @@
       <c r="B48" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1121,7 +1123,7 @@
       <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>0</v>
       </c>
     </row>
